--- a/biology/Médecine/Centre_de_santé_de_Kassapö/Centre_de_santé_de_Kassapö.xlsx
+++ b/biology/Médecine/Centre_de_santé_de_Kassapö/Centre_de_santé_de_Kassapö.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_sant%C3%A9_de_Kassap%C3%B6</t>
+          <t>Centre_de_santé_de_Kassapö</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre de santé de Kassapö est un établissement de santé publique de Guinée. Il est situé dans la ville industrielle de Kamsar[1] ,[2].
+Le Centre de santé de Kassapö est un établissement de santé publique de Guinée. Il est situé dans la ville industrielle de Kamsar ,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_de_sant%C3%A9_de_Kassap%C3%B6</t>
+          <t>Centre_de_santé_de_Kassapö</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a servi de centre épidémiologique pendant Ebola en 2015[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a servi de centre épidémiologique pendant Ebola en 2015,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_de_sant%C3%A9_de_Kassap%C3%B6</t>
+          <t>Centre_de_santé_de_Kassapö</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Espaces de soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>maternité
 Pédiatrie
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_de_sant%C3%A9_de_Kassap%C3%B6</t>
+          <t>Centre_de_santé_de_Kassapö</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Note et référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Guineematin, « Emeutes anti Ebola à Kamsar : « je suis inquiète », se confie madame le sous-préfet », sur Guinée Matin - Les Nouvelles de la Guinée profonde, 29 mai 2015 (consulté le 20 novembre 2020)
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_de_sant%C3%A9_de_Kassap%C3%B6</t>
+          <t>Centre_de_santé_de_Kassapö</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
